--- a/biology/Botanique/Patellifolia/Patellifolia.xlsx
+++ b/biology/Botanique/Patellifolia/Patellifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Patellifolia est un genre de plantes dicotylédones de la famille des Amaranthaceae (sous-famille des Betoideae), qui comprend trois espèce, originaire de Méditerranée occidentale et des îles Canaries.
 </t>
@@ -511,12 +523,49 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Patellifolia fut décrit par  A.J.Scott, Ford-Lloyd &amp; J.T.Williams et publié dans la revue  Taxon 26 (2–3): 284. 1977[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Patellifolia fut décrit par  A.J.Scott, Ford-Lloyd &amp; J.T.Williams et publié dans la revue  Taxon 26 (2–3): 284. 1977.
 Les trois espèces qui le composent étaient antérieurement affectées au genre Beta.
-Liste des espèces
-Selon GRIN            (21 juin 2014)[3] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Patellifolia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patellifolia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GRIN            (21 juin 2014) :
 Patellifolia patellaris (Moq.) A. J. Scott &amp; al.
 Patellifolia procumbens (C. Sm.) A. J. Scott &amp; al.
 Patellifolia webbiana (Moq.) A. J. Scott</t>
